--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6851,6 +6851,26 @@
         <v>0</v>
       </c>
       <c r="R107" s="2" t="inlineStr"/>
+      <c r="U107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/knärot/A 7181-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 7181-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 7181-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 7181-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 7181-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
@@ -6862,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6919,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6976,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7033,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7090,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7147,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7204,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7261,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7318,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 13663-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 13663-2023.xlsx", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 13663-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 13663-2023.png", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/knärot/A 13663-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/knärot/A 13663-2023.png", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 13663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 13663-2023.docx", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 13663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 13663-2023.docx", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 13663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 13663-2023.docx", "A 13663-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 13663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 13663-2023.docx", "A 13663-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 8074-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 8074-2020.xlsx", "A 8074-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 8074-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 8074-2020.png", "A 8074-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 8074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 8074-2020.docx", "A 8074-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 8074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 8074-2020.docx", "A 8074-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 8074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 8074-2020.docx", "A 8074-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 8074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 8074-2020.docx", "A 8074-2020")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 7365-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 7365-2023.xlsx", "A 7365-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 7365-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 7365-2023.png", "A 7365-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 7365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 7365-2023.docx", "A 7365-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 7365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 7365-2023.docx", "A 7365-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 7365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 7365-2023.docx", "A 7365-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 7365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 7365-2023.docx", "A 7365-2023")</f>
         <v/>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 5382-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 5382-2019.xlsx", "A 5382-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 5382-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 5382-2019.png", "A 5382-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 5382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 5382-2019.docx", "A 5382-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 5382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 5382-2019.docx", "A 5382-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 5382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 5382-2019.docx", "A 5382-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 5382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 5382-2019.docx", "A 5382-2019")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -978,27 +978,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 34059-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 34059-2019.xlsx", "A 34059-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 34059-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 34059-2019.png", "A 34059-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 34059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 34059-2019.docx", "A 34059-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 34059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 34059-2019.docx", "A 34059-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 34059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 34059-2019.docx", "A 34059-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 34059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 34059-2019.docx", "A 34059-2019")</f>
         <v/>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,27 +1063,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 13949-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/artfynd/A 13949-2020.xlsx", "A 13949-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 13949-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/kartor/A 13949-2020.png", "A 13949-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 13949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 13949-2020.docx", "A 13949-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 13949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 13949-2020.docx", "A 13949-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 13949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 13949-2020.docx", "A 13949-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 13949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 13949-2020.docx", "A 13949-2020")</f>
         <v/>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6852,23 +6852,23 @@
       </c>
       <c r="R107" s="2" t="inlineStr"/>
       <c r="U107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/knärot/A 7181-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/knärot/A 7181-2023.png", "A 7181-2023")</f>
         <v/>
       </c>
       <c r="V107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 7181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomål/A 7181-2023.docx", "A 7181-2023")</f>
         <v/>
       </c>
       <c r="W107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 7181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/klagomålsmail/A 7181-2023.docx", "A 7181-2023")</f>
         <v/>
       </c>
       <c r="X107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 7181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsyn/A 7181-2023.docx", "A 7181-2023")</f>
         <v/>
       </c>
       <c r="Y107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 7181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MULLSJO/tillsynsmail/A 7181-2023.docx", "A 7181-2023")</f>
         <v/>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="R116" s="2" t="inlineStr"/>
     </row>
-    <row r="117">
+    <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
           <t>A 40661-2023</t>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7441,6 +7441,130 @@
         <v>0</v>
       </c>
       <c r="R117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118" ht="15" customHeight="1">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>A 44654-2023</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>A 44649-2023</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="R118" s="2" t="inlineStr"/>
     </row>
-    <row r="119">
+    <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
           <t>A 44649-2023</t>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,6 +7565,63 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A 46901-2023</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y120"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="R119" s="2" t="inlineStr"/>
     </row>
-    <row r="120">
+    <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
           <t>A 46901-2023</t>
@@ -7576,7 +7576,7 @@
         <v>45201</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,6 +7622,63 @@
         <v>0</v>
       </c>
       <c r="R120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>A 47194-2023</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45201</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45202</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45201</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="R120" s="2" t="inlineStr"/>
     </row>
-    <row r="121">
+    <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
           <t>A 47194-2023</t>
@@ -7633,7 +7633,7 @@
         <v>45202</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,6 +7679,63 @@
         <v>0</v>
       </c>
       <c r="R121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>A 47860-2023</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45201</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45202</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>45204</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45006</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43874</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>43488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43654</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>43906</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43318</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43328</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43341</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43411</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43531</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43531</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43538</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43542</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43542</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43650</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43651</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43655</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43656</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43657</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43657</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43672</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43697</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43718</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43836</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44088</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44140</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>44171</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44171</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>44187</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44208</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44237</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44238</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44260</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44391</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44421</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44430</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44456</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44607</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44620</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44656</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44656</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44656</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44656</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44665</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44832</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44854</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44869</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44890</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44890</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44895</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44922</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44966</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44977</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45007</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45043</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45083</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45103</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45118</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45170</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45189</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45189</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45201</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45202</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>45204</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
